--- a/EMAPP/Template.xlsx
+++ b/EMAPP/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\Siemens\EMAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F22F0F-3747-4566-8E0A-CBEE0E72A5A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46DA994A-2031-4E41-947C-60F7E983825D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Sheet1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>From:</t>
   </si>
@@ -81,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -126,19 +123,293 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,61 +425,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19718</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A011D0DF-FA94-4DAF-B945-72F7CF23BF95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1848518" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,16 +724,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
@@ -525,66 +745,149 @@
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>